--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_4_2.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_4_2.xlsx
@@ -478,187 +478,187 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_0</t>
+          <t>model_4_2_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6402165563634941</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.04772540955163995</v>
+        <v>-5.835797479179137</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.008252232017037286</v>
+        <v>-0.08935279892930792</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.01039840828603866</v>
+        <v>-2.234412954938043</v>
       </c>
       <c r="F2" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3981742858886719</v>
       </c>
       <c r="G2" t="n">
-        <v>2.276174306869507</v>
+        <v>1.664963960647583</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9864976406097412</v>
+        <v>0.487859845161438</v>
       </c>
       <c r="I2" t="n">
-        <v>1.669267773628235</v>
+        <v>1.111031055450439</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_22</t>
+          <t>model_4_2_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.642067167262961</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.04772540955163995</v>
+        <v>-5.810251914785142</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.008252232017037286</v>
+        <v>-0.07116339701319041</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.01039840828603866</v>
+        <v>-2.213674993957021</v>
       </c>
       <c r="F3" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3961262106895447</v>
       </c>
       <c r="G3" t="n">
-        <v>2.276174306869507</v>
+        <v>1.65874195098877</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9864976406097412</v>
+        <v>0.4797138571739197</v>
       </c>
       <c r="I3" t="n">
-        <v>1.669267773628235</v>
+        <v>1.103907465934753</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_21</t>
+          <t>model_4_2_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6455745112936551</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.04772540955163995</v>
+        <v>-5.801301765222518</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.008252232017037286</v>
+        <v>-0.01438509170510516</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.01039840828603866</v>
+        <v>-2.175471984170538</v>
       </c>
       <c r="F4" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3922445774078369</v>
       </c>
       <c r="G4" t="n">
-        <v>2.276174306869507</v>
+        <v>1.656561970710754</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9864976406097412</v>
+        <v>0.4542860388755798</v>
       </c>
       <c r="I4" t="n">
-        <v>1.669267773628235</v>
+        <v>1.090784549713135</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_20</t>
+          <t>model_4_2_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6501628585389463</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.04772540955163995</v>
+        <v>-5.711535073065461</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.008252232017037286</v>
+        <v>0.01142570791889974</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.01039840828603866</v>
+        <v>-2.125940142440476</v>
       </c>
       <c r="F5" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3871666491031647</v>
       </c>
       <c r="G5" t="n">
-        <v>2.276174306869507</v>
+        <v>1.634697914123535</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9864976406097412</v>
+        <v>0.4427268505096436</v>
       </c>
       <c r="I5" t="n">
-        <v>1.669267773628235</v>
+        <v>1.07377016544342</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_19</t>
+          <t>model_4_2_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6518119711407308</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.04772540955163995</v>
+        <v>-5.66871311856145</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.008252232017037286</v>
+        <v>0.0159222653978961</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.01039840828603866</v>
+        <v>-2.107100581472376</v>
       </c>
       <c r="F6" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3853415548801422</v>
       </c>
       <c r="G6" t="n">
-        <v>2.276174306869507</v>
+        <v>1.624268054962158</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9864976406097412</v>
+        <v>0.4407130777835846</v>
       </c>
       <c r="I6" t="n">
-        <v>1.669267773628235</v>
+        <v>1.067298769950867</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_18</t>
+          <t>model_4_2_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6526514280987448</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.04772540955163995</v>
+        <v>-5.716588096234124</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.008252232017037286</v>
+        <v>0.06172610472735185</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.01039840828603866</v>
+        <v>-2.096973698990188</v>
       </c>
       <c r="F7" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3844124972820282</v>
       </c>
       <c r="G7" t="n">
-        <v>2.276174306869507</v>
+        <v>1.635928630828857</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9864976406097412</v>
+        <v>0.4202001094818115</v>
       </c>
       <c r="I7" t="n">
-        <v>1.669267773628235</v>
+        <v>1.063820123672485</v>
       </c>
     </row>
     <row r="8">
@@ -668,245 +668,245 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6561275872804313</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.04772540955163995</v>
+        <v>-5.670199159532011</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.008252232017037286</v>
+        <v>0.09583786499475444</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.01039840828603866</v>
+        <v>-2.058636966909144</v>
       </c>
       <c r="F8" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3805654346942902</v>
       </c>
       <c r="G8" t="n">
-        <v>2.276174306869507</v>
+        <v>1.624629855155945</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9864976406097412</v>
+        <v>0.4049233794212341</v>
       </c>
       <c r="I8" t="n">
-        <v>1.669267773628235</v>
+        <v>1.05065131187439</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_16</t>
+          <t>model_4_2_11</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6561759489033672</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.04772540955163995</v>
+        <v>-5.681032381076133</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.008252232017037286</v>
+        <v>0.1094878240627549</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.01039840828603866</v>
+        <v>-2.054322693729076</v>
       </c>
       <c r="F9" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3805119097232819</v>
       </c>
       <c r="G9" t="n">
-        <v>2.276174306869507</v>
+        <v>1.627268433570862</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9864976406097412</v>
+        <v>0.3988103270530701</v>
       </c>
       <c r="I9" t="n">
-        <v>1.669267773628235</v>
+        <v>1.049169421195984</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_15</t>
+          <t>model_4_2_18</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6564048685590793</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.04772540955163995</v>
+        <v>-5.645205317256752</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.008252232017037286</v>
+        <v>0.08436641545759427</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01039840828603866</v>
+        <v>-2.056291714512841</v>
       </c>
       <c r="F10" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3802585601806641</v>
       </c>
       <c r="G10" t="n">
-        <v>2.276174306869507</v>
+        <v>1.618542194366455</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9864976406097412</v>
+        <v>0.4100607931613922</v>
       </c>
       <c r="I10" t="n">
-        <v>1.669267773628235</v>
+        <v>1.049845695495605</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_14</t>
+          <t>model_4_2_10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6577669475779759</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.04772540955163995</v>
+        <v>-5.682806371858902</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.008252232017037286</v>
+        <v>0.1408505612465881</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01039840828603866</v>
+        <v>-2.035760212857919</v>
       </c>
       <c r="F11" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3787511885166168</v>
       </c>
       <c r="G11" t="n">
-        <v>2.276174306869507</v>
+        <v>1.627700448036194</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9864976406097412</v>
+        <v>0.3847647309303284</v>
       </c>
       <c r="I11" t="n">
-        <v>1.669267773628235</v>
+        <v>1.042793035507202</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_13</t>
+          <t>model_4_2_16</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6577733684925429</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.04772540955163995</v>
+        <v>-5.656114074839001</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.008252232017037286</v>
+        <v>0.116517287306139</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.01039840828603866</v>
+        <v>-2.040662241512929</v>
       </c>
       <c r="F12" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3787440359592438</v>
       </c>
       <c r="G12" t="n">
-        <v>2.276174306869507</v>
+        <v>1.621199131011963</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9864976406097412</v>
+        <v>0.395662248134613</v>
       </c>
       <c r="I12" t="n">
-        <v>1.669267773628235</v>
+        <v>1.044476985931396</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_23</t>
+          <t>model_4_2_15</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6584930828626734</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.04772540955163995</v>
+        <v>-5.64502335122896</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.008252232017037286</v>
+        <v>0.1227232427723687</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.01039840828603866</v>
+        <v>-2.032686516407755</v>
       </c>
       <c r="F13" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3779475390911102</v>
       </c>
       <c r="G13" t="n">
-        <v>2.276174306869507</v>
+        <v>1.618497967720032</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9864976406097412</v>
+        <v>0.3928829431533813</v>
       </c>
       <c r="I13" t="n">
-        <v>1.669267773628235</v>
+        <v>1.04173743724823</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_12</t>
+          <t>model_4_2_14</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6587273985817459</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.04772540955163995</v>
+        <v>-5.632319424524577</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.008252232017037286</v>
+        <v>0.1193122809858661</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01039840828603866</v>
+        <v>-2.030009979952111</v>
       </c>
       <c r="F14" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3776881992816925</v>
       </c>
       <c r="G14" t="n">
-        <v>2.276174306869507</v>
+        <v>1.615403652191162</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9864976406097412</v>
+        <v>0.3944104909896851</v>
       </c>
       <c r="I14" t="n">
-        <v>1.669267773628235</v>
+        <v>1.040817856788635</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_10</t>
+          <t>model_4_2_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6591758951755795</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.04772540955163995</v>
+        <v>-5.609036931486633</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.008252232017037286</v>
+        <v>0.1135299995090239</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01039840828603866</v>
+        <v>-2.024820998622188</v>
       </c>
       <c r="F15" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3771918118000031</v>
       </c>
       <c r="G15" t="n">
-        <v>2.276174306869507</v>
+        <v>1.609732866287231</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9864976406097412</v>
+        <v>0.3970000743865967</v>
       </c>
       <c r="I15" t="n">
-        <v>1.669267773628235</v>
+        <v>1.039035439491272</v>
       </c>
     </row>
     <row r="16">
@@ -916,338 +916,338 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6592590874564865</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.04772540955163995</v>
+        <v>-5.617174287328808</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.008252232017037286</v>
+        <v>0.1275885968144411</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.01039840828603866</v>
+        <v>-2.019255627091584</v>
       </c>
       <c r="F16" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3770997822284698</v>
       </c>
       <c r="G16" t="n">
-        <v>2.276174306869507</v>
+        <v>1.611714839935303</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9864976406097412</v>
+        <v>0.3907040059566498</v>
       </c>
       <c r="I16" t="n">
-        <v>1.669267773628235</v>
+        <v>1.037123680114746</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_8</t>
+          <t>model_4_2_12</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6595737641292584</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.04772540955163995</v>
+        <v>-5.60685984168388</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.008252232017037286</v>
+        <v>0.1195200679260849</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.01039840828603866</v>
+        <v>-2.02032412076325</v>
       </c>
       <c r="F17" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3767515122890472</v>
       </c>
       <c r="G17" t="n">
-        <v>2.276174306869507</v>
+        <v>1.60920262336731</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9864976406097412</v>
+        <v>0.3943174481391907</v>
       </c>
       <c r="I17" t="n">
-        <v>1.669267773628235</v>
+        <v>1.037490844726562</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_7</t>
+          <t>model_4_2_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6598349436076509</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.04772540955163995</v>
+        <v>-5.626213187498289</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.008252232017037286</v>
+        <v>0.1455792234618556</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.01039840828603866</v>
+        <v>-2.011603806331865</v>
       </c>
       <c r="F18" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3764624893665314</v>
       </c>
       <c r="G18" t="n">
-        <v>2.276174306869507</v>
+        <v>1.613916516304016</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9864976406097412</v>
+        <v>0.3826470375061035</v>
       </c>
       <c r="I18" t="n">
-        <v>1.669267773628235</v>
+        <v>1.03449535369873</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_6</t>
+          <t>model_4_2_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6702017318967624</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.04772540955163995</v>
+        <v>-5.500242178577265</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.008252232017037286</v>
+        <v>0.253084060473402</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.01039840828603866</v>
+        <v>-1.898355812661447</v>
       </c>
       <c r="F19" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3649895191192627</v>
       </c>
       <c r="G19" t="n">
-        <v>2.276174306869507</v>
+        <v>1.583234190940857</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9864976406097412</v>
+        <v>0.3345016539096832</v>
       </c>
       <c r="I19" t="n">
-        <v>1.669267773628235</v>
+        <v>0.9955942630767822</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_5</t>
+          <t>model_4_2_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.677115221928447</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.04772540955163995</v>
+        <v>-5.343893932930807</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.008252232017037286</v>
+        <v>0.2806650387691867</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.01039840828603866</v>
+        <v>-1.822746524713773</v>
       </c>
       <c r="F20" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3573382794857025</v>
       </c>
       <c r="G20" t="n">
-        <v>2.276174306869507</v>
+        <v>1.545153141021729</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9864976406097412</v>
+        <v>0.3221496641635895</v>
       </c>
       <c r="I20" t="n">
-        <v>1.669267773628235</v>
+        <v>0.9696221947669983</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_4</t>
+          <t>model_4_2_2</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6798095858891022</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.04772540955163995</v>
+        <v>-4.750859394817433</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.008252232017037286</v>
+        <v>0.1083871093176918</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.01039840828603866</v>
+        <v>-1.705824576852493</v>
       </c>
       <c r="F21" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3543564677238464</v>
       </c>
       <c r="G21" t="n">
-        <v>2.276174306869507</v>
+        <v>1.400710463523865</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9864976406097412</v>
+        <v>0.3993032574653625</v>
       </c>
       <c r="I21" t="n">
-        <v>1.669267773628235</v>
+        <v>0.9294591546058655</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_3</t>
+          <t>model_4_2_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6812088425828139</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.04772540955163995</v>
+        <v>-5.157150963158012</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.008252232017037286</v>
+        <v>0.2561068811118274</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.01039840828603866</v>
+        <v>-1.767711852397233</v>
       </c>
       <c r="F22" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3528078496456146</v>
       </c>
       <c r="G22" t="n">
-        <v>2.276174306869507</v>
+        <v>1.499669075012207</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9864976406097412</v>
+        <v>0.3331479132175446</v>
       </c>
       <c r="I22" t="n">
-        <v>1.669267773628235</v>
+        <v>0.9507176876068115</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_2</t>
+          <t>model_4_2_5</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.6831110222607655</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.04772540955163995</v>
+        <v>-5.223389458654476</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.008252232017037286</v>
+        <v>0.3182598937007072</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.01039840828603866</v>
+        <v>-1.754448222787054</v>
       </c>
       <c r="F23" t="n">
-        <v>1.087675213813782</v>
+        <v>0.350702702999115</v>
       </c>
       <c r="G23" t="n">
-        <v>2.276174306869507</v>
+        <v>1.515802383422852</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9864976406097412</v>
+        <v>0.3053130507469177</v>
       </c>
       <c r="I23" t="n">
-        <v>1.669267773628235</v>
+        <v>0.9461616277694702</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_1</t>
+          <t>model_4_2_3</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.688897010499768</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.04772540955163995</v>
+        <v>-4.907401762844791</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.008252232017037286</v>
+        <v>0.2667207544175996</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.01039840828603866</v>
+        <v>-1.667445455201377</v>
       </c>
       <c r="F24" t="n">
-        <v>1.087675213813782</v>
+        <v>0.3442993462085724</v>
       </c>
       <c r="G24" t="n">
-        <v>2.276174306869507</v>
+        <v>1.438838720321655</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9864976406097412</v>
+        <v>0.3283945322036743</v>
       </c>
       <c r="I24" t="n">
-        <v>1.669267773628235</v>
+        <v>0.9162758588790894</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_11</t>
+          <t>model_4_2_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.7723003809953508</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.04772540955163995</v>
+        <v>-1.726297400591362</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.008252232017037286</v>
+        <v>0.3822991686042894</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.01039840828603866</v>
+        <v>-0.4023930227929842</v>
       </c>
       <c r="F25" t="n">
-        <v>1.087675213813782</v>
+        <v>0.2519963681697845</v>
       </c>
       <c r="G25" t="n">
-        <v>2.276174306869507</v>
+        <v>0.6640318036079407</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9864976406097412</v>
+        <v>0.2766334712505341</v>
       </c>
       <c r="I25" t="n">
-        <v>1.669267773628235</v>
+        <v>0.4817264080047607</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_4_2_24</t>
+          <t>model_4_2_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01719527320280512</v>
+        <v>0.7826166503205511</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.04772540955163995</v>
+        <v>-1.225931746026951</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.008252232017037286</v>
+        <v>0.4042675848874772</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.01039840828603866</v>
+        <v>-0.2010835684546819</v>
       </c>
       <c r="F26" t="n">
-        <v>1.087675213813782</v>
+        <v>0.240579292178154</v>
       </c>
       <c r="G26" t="n">
-        <v>2.276174306869507</v>
+        <v>0.5421599149703979</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9864976406097412</v>
+        <v>0.2667950689792633</v>
       </c>
       <c r="I26" t="n">
-        <v>1.669267773628235</v>
+        <v>0.4125759601593018</v>
       </c>
     </row>
   </sheetData>
